--- a/Excel/DarsiniTeachers.xlsx
+++ b/Excel/DarsiniTeachers.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14868" windowHeight="1572" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="AssignmentPage" sheetId="2" r:id="rId2"/>
+    <sheet name="AnnouncementPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Class Name</t>
   </si>
@@ -79,6 +80,30 @@
   </si>
   <si>
     <t>03/03/2021</t>
+  </si>
+  <si>
+    <t>ShowParent</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>ShowParents</t>
+  </si>
+  <si>
+    <t>Announcement</t>
+  </si>
+  <si>
+    <t>AnnouncementOneDesc</t>
+  </si>
+  <si>
+    <t>E:\\Users\\Ashwin Harikrishnan\\eclipse-workspace\\com.darsiniteacher\\Resources\\Images\\text2.png</t>
   </si>
 </sst>
 </file>
@@ -484,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +523,7 @@
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -511,8 +536,14 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -524,10 +555,70 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/DarsiniTeachers.xlsx
+++ b/Excel/DarsiniTeachers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14868" windowHeight="1572" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14868" windowHeight="1572" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Class Name</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Test Assignment</t>
   </si>
   <si>
-    <t>Test Assignment Desc 1</t>
-  </si>
-  <si>
     <t>E:\Users\Ashwin Harikrishnan\eclipse-workspace\com.darsiniteacher\Resources\Images\text2.png</t>
   </si>
   <si>
@@ -104,6 +101,30 @@
   </si>
   <si>
     <t>E:\\Users\\Ashwin Harikrishnan\\eclipse-workspace\\com.darsiniteacher\\Resources\\Images\\text2.png</t>
+  </si>
+  <si>
+    <t>EDIT ANNOUNCEMENT</t>
+  </si>
+  <si>
+    <t>AnnouncementOne</t>
+  </si>
+  <si>
+    <t>AnnouncementDesc</t>
+  </si>
+  <si>
+    <t>EDIT ASSIGNMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Assignment Desc </t>
+  </si>
+  <si>
+    <t>Test Assignment Desc  1</t>
+  </si>
+  <si>
+    <t>04/03/2021</t>
+  </si>
+  <si>
+    <t>Test Assignment One</t>
   </si>
 </sst>
 </file>
@@ -509,10 +530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,10 +558,10 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -548,19 +569,64 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -571,10 +637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,30 +661,70 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/DarsiniTeachers.xlsx
+++ b/Excel/DarsiniTeachers.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Class Name</t>
   </si>
@@ -118,10 +118,7 @@
     <t xml:space="preserve">Test Assignment Desc </t>
   </si>
   <si>
-    <t>Test Assignment Desc  1</t>
-  </si>
-  <si>
-    <t>04/03/2021</t>
+    <t>05/03/2021</t>
   </si>
   <si>
     <t>Test Assignment One</t>
@@ -591,16 +588,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>

--- a/Excel/DarsiniTeachers.xlsx
+++ b/Excel/DarsiniTeachers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14868" windowHeight="1572" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14868" windowHeight="1572" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,18 +97,12 @@
     <t>Announcement</t>
   </si>
   <si>
-    <t>AnnouncementOneDesc</t>
-  </si>
-  <si>
     <t>E:\\Users\\Ashwin Harikrishnan\\eclipse-workspace\\com.darsiniteacher\\Resources\\Images\\text2.png</t>
   </si>
   <si>
     <t>EDIT ANNOUNCEMENT</t>
   </si>
   <si>
-    <t>AnnouncementOne</t>
-  </si>
-  <si>
     <t>AnnouncementDesc</t>
   </si>
   <si>
@@ -122,6 +116,12 @@
   </si>
   <si>
     <t>Test Assignment One</t>
+  </si>
+  <si>
+    <t>TestAnnouncementOne</t>
+  </si>
+  <si>
+    <t>TestAnnouncementOneDesc</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -566,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -583,21 +583,21 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,10 +669,10 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -683,18 +683,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>

--- a/Excel/DarsiniTeachers.xlsx
+++ b/Excel/DarsiniTeachers.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="AssignmentPage" sheetId="2" r:id="rId2"/>
     <sheet name="AnnouncementPage" sheetId="3" r:id="rId3"/>
+    <sheet name="ClassFeed" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t>Class Name</t>
   </si>
@@ -122,6 +123,51 @@
   </si>
   <si>
     <t>TestAnnouncementOneDesc</t>
+  </si>
+  <si>
+    <t>HOMEFEED CHECK DATA</t>
+  </si>
+  <si>
+    <t>21/01/2021</t>
+  </si>
+  <si>
+    <t>Central Integration Planner</t>
+  </si>
+  <si>
+    <t>Class name</t>
+  </si>
+  <si>
+    <t>Date of creation</t>
+  </si>
+  <si>
+    <t>Comment Count</t>
+  </si>
+  <si>
+    <t>1 Comment</t>
+  </si>
+  <si>
+    <t>CLASSFEED DATA</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Creation date</t>
+  </si>
+  <si>
+    <t>attachmentName</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>No of views</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Due Date: 05/03/2021</t>
   </si>
 </sst>
 </file>
@@ -527,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,6 +672,93 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -634,10 +767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,8 +853,109 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/DarsiniTeachers.xlsx
+++ b/Excel/DarsiniTeachers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14868" windowHeight="1572" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14868" windowHeight="1572" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t>Class Name</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Due Date: 05/03/2021</t>
+  </si>
+  <si>
+    <t>28/01/2021</t>
   </si>
 </sst>
 </file>
@@ -575,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +750,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -769,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +931,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>

--- a/Excel/DarsiniTeachers.xlsx
+++ b/Excel/DarsiniTeachers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14868" windowHeight="1572" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14868" windowHeight="1572" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>Class Name</t>
   </si>
@@ -128,12 +128,6 @@
     <t>HOMEFEED CHECK DATA</t>
   </si>
   <si>
-    <t>21/01/2021</t>
-  </si>
-  <si>
-    <t>Central Integration Planner</t>
-  </si>
-  <si>
     <t>Class name</t>
   </si>
   <si>
@@ -170,7 +164,19 @@
     <t>Due Date: 05/03/2021</t>
   </si>
   <si>
-    <t>28/01/2021</t>
+    <t>10/02/2021</t>
+  </si>
+  <si>
+    <t>FeedTestAnnouncement</t>
+  </si>
+  <si>
+    <t>Internal Applications Consultant</t>
+  </si>
+  <si>
+    <t>Feed Test Assignment</t>
+  </si>
+  <si>
+    <t>Test Assignment Desc</t>
   </si>
 </sst>
 </file>
@@ -578,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,38 +691,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -724,42 +730,42 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -772,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,38 +872,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -905,42 +911,42 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/Excel/DarsiniTeachers.xlsx
+++ b/Excel/DarsiniTeachers.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14868" windowHeight="1572" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14868" windowHeight="1572" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="AssignmentPage" sheetId="2" r:id="rId2"/>
     <sheet name="AnnouncementPage" sheetId="3" r:id="rId3"/>
     <sheet name="ClassFeed" sheetId="4" r:id="rId4"/>
+    <sheet name="HomeFeed" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
     <t>Class Name</t>
   </si>
@@ -177,13 +178,25 @@
   </si>
   <si>
     <t>Test Assignment Desc</t>
+  </si>
+  <si>
+    <t>CLASSFEED DATA (ASSIGNMENT)</t>
+  </si>
+  <si>
+    <t>CLASSFEED DATA(ANNOUNCEMENT)</t>
+  </si>
+  <si>
+    <t>HOMEFEED CHECK DATA(Assignment)</t>
+  </si>
+  <si>
+    <t>12/02/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +206,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -226,10 +246,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +535,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +607,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A12" sqref="A12:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,14 +979,218 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>